--- a/stock_historical_data/day/TATVA.xlsx
+++ b/stock_historical_data/day/TATVA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R696"/>
+  <dimension ref="A1:S697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -588,6 +593,9 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,6 +656,9 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -708,6 +719,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -768,6 +782,9 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -828,6 +845,9 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,6 +908,9 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -948,6 +971,9 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1008,6 +1034,9 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1068,6 +1097,9 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1128,6 +1160,9 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1188,6 +1223,9 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1248,6 +1286,9 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1308,6 +1349,9 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1368,6 +1412,9 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1428,6 +1475,9 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1488,6 +1538,9 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1548,6 +1601,9 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1608,6 +1664,9 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1668,6 +1727,9 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1728,6 +1790,9 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1788,6 +1853,9 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1848,6 +1916,9 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1908,6 +1979,9 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1968,6 +2042,9 @@
       <c r="R25" t="n">
         <v>0</v>
       </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2028,6 +2105,9 @@
       <c r="R26" t="n">
         <v>0</v>
       </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2088,6 +2168,9 @@
       <c r="R27" t="n">
         <v>0</v>
       </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2148,6 +2231,9 @@
       <c r="R28" t="n">
         <v>0</v>
       </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2208,6 +2294,9 @@
       <c r="R29" t="n">
         <v>0</v>
       </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2268,6 +2357,9 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2328,6 +2420,9 @@
       <c r="R31" t="n">
         <v>0</v>
       </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2388,6 +2483,9 @@
       <c r="R32" t="n">
         <v>0</v>
       </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2448,6 +2546,9 @@
       <c r="R33" t="n">
         <v>0</v>
       </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2508,6 +2609,9 @@
       <c r="R34" t="n">
         <v>0</v>
       </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2568,6 +2672,9 @@
       <c r="R35" t="n">
         <v>0</v>
       </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2628,6 +2735,9 @@
       <c r="R36" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2688,6 +2798,9 @@
       <c r="R37" t="n">
         <v>0</v>
       </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2748,6 +2861,9 @@
       <c r="R38" t="n">
         <v>0</v>
       </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2808,6 +2924,9 @@
       <c r="R39" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2868,6 +2987,9 @@
       <c r="R40" t="n">
         <v>0</v>
       </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2928,6 +3050,9 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2988,6 +3113,9 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3048,6 +3176,9 @@
       <c r="R43" t="n">
         <v>0</v>
       </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3108,6 +3239,9 @@
       <c r="R44" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3168,6 +3302,9 @@
       <c r="R45" t="n">
         <v>0</v>
       </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3228,6 +3365,9 @@
       <c r="R46" t="n">
         <v>0</v>
       </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3288,6 +3428,9 @@
       <c r="R47" t="n">
         <v>0</v>
       </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3348,6 +3491,9 @@
       <c r="R48" t="n">
         <v>0</v>
       </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3408,6 +3554,9 @@
       <c r="R49" t="n">
         <v>0</v>
       </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3468,6 +3617,9 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3528,6 +3680,9 @@
       <c r="R51" t="n">
         <v>0</v>
       </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3588,6 +3743,9 @@
       <c r="R52" t="n">
         <v>0</v>
       </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3648,6 +3806,9 @@
       <c r="R53" t="n">
         <v>0</v>
       </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3708,6 +3869,9 @@
       <c r="R54" t="n">
         <v>0</v>
       </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3768,6 +3932,9 @@
       <c r="R55" t="n">
         <v>0</v>
       </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3828,6 +3995,9 @@
       <c r="R56" t="n">
         <v>0</v>
       </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3888,6 +4058,9 @@
       <c r="R57" t="n">
         <v>0</v>
       </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3948,6 +4121,9 @@
       <c r="R58" t="n">
         <v>0</v>
       </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4008,6 +4184,9 @@
       <c r="R59" t="n">
         <v>0</v>
       </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4068,6 +4247,9 @@
       <c r="R60" t="n">
         <v>0</v>
       </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4128,6 +4310,9 @@
       <c r="R61" t="n">
         <v>0</v>
       </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4188,6 +4373,9 @@
       <c r="R62" t="n">
         <v>0</v>
       </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4248,6 +4436,9 @@
       <c r="R63" t="n">
         <v>0</v>
       </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4308,6 +4499,9 @@
       <c r="R64" t="n">
         <v>0</v>
       </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4368,6 +4562,9 @@
       <c r="R65" t="n">
         <v>0</v>
       </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4428,6 +4625,9 @@
       <c r="R66" t="n">
         <v>0</v>
       </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4488,6 +4688,9 @@
       <c r="R67" t="n">
         <v>0</v>
       </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4548,6 +4751,9 @@
       <c r="R68" t="n">
         <v>0</v>
       </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4608,6 +4814,9 @@
       <c r="R69" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4668,6 +4877,9 @@
       <c r="R70" t="n">
         <v>0</v>
       </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4728,6 +4940,9 @@
       <c r="R71" t="n">
         <v>0</v>
       </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4788,6 +5003,9 @@
       <c r="R72" t="n">
         <v>0</v>
       </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4848,6 +5066,9 @@
       <c r="R73" t="n">
         <v>0</v>
       </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4908,6 +5129,9 @@
       <c r="R74" t="n">
         <v>0</v>
       </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4968,6 +5192,9 @@
       <c r="R75" t="n">
         <v>0</v>
       </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5028,6 +5255,9 @@
       <c r="R76" t="n">
         <v>0</v>
       </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5088,6 +5318,9 @@
       <c r="R77" t="n">
         <v>0</v>
       </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5148,6 +5381,9 @@
       <c r="R78" t="n">
         <v>0</v>
       </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5208,6 +5444,9 @@
       <c r="R79" t="n">
         <v>0</v>
       </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5268,6 +5507,9 @@
       <c r="R80" t="n">
         <v>0</v>
       </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -5328,6 +5570,9 @@
       <c r="R81" t="n">
         <v>0</v>
       </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5388,6 +5633,9 @@
       <c r="R82" t="n">
         <v>0</v>
       </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5448,6 +5696,9 @@
       <c r="R83" t="n">
         <v>0</v>
       </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5508,6 +5759,9 @@
       <c r="R84" t="n">
         <v>0</v>
       </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -5568,6 +5822,9 @@
       <c r="R85" t="n">
         <v>0</v>
       </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5628,6 +5885,9 @@
       <c r="R86" t="n">
         <v>0</v>
       </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5688,6 +5948,9 @@
       <c r="R87" t="n">
         <v>0</v>
       </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5748,6 +6011,9 @@
       <c r="R88" t="n">
         <v>0</v>
       </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5808,6 +6074,9 @@
       <c r="R89" t="n">
         <v>0</v>
       </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5868,6 +6137,9 @@
       <c r="R90" t="n">
         <v>0</v>
       </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5928,6 +6200,9 @@
       <c r="R91" t="n">
         <v>0</v>
       </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5988,6 +6263,9 @@
       <c r="R92" t="n">
         <v>0</v>
       </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6048,6 +6326,9 @@
       <c r="R93" t="n">
         <v>0</v>
       </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6108,6 +6389,9 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6168,6 +6452,9 @@
       <c r="R95" t="n">
         <v>0</v>
       </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -6228,6 +6515,9 @@
       <c r="R96" t="n">
         <v>0</v>
       </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -6288,6 +6578,9 @@
       <c r="R97" t="n">
         <v>0</v>
       </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6348,6 +6641,9 @@
       <c r="R98" t="n">
         <v>0</v>
       </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6408,6 +6704,9 @@
       <c r="R99" t="n">
         <v>0</v>
       </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -6468,6 +6767,9 @@
       <c r="R100" t="n">
         <v>0</v>
       </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -6528,6 +6830,9 @@
       <c r="R101" t="n">
         <v>0</v>
       </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -6588,6 +6893,9 @@
       <c r="R102" t="n">
         <v>0</v>
       </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -6648,6 +6956,9 @@
       <c r="R103" t="n">
         <v>0</v>
       </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -6708,6 +7019,9 @@
       <c r="R104" t="n">
         <v>0</v>
       </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6768,6 +7082,9 @@
       <c r="R105" t="n">
         <v>0</v>
       </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6828,6 +7145,9 @@
       <c r="R106" t="n">
         <v>0</v>
       </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6888,6 +7208,9 @@
       <c r="R107" t="n">
         <v>0</v>
       </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6948,6 +7271,9 @@
       <c r="R108" t="n">
         <v>0</v>
       </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7008,6 +7334,9 @@
       <c r="R109" t="n">
         <v>0</v>
       </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7068,6 +7397,9 @@
       <c r="R110" t="n">
         <v>0</v>
       </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -7128,6 +7460,9 @@
       <c r="R111" t="n">
         <v>0</v>
       </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -7188,6 +7523,9 @@
       <c r="R112" t="n">
         <v>0</v>
       </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7248,6 +7586,9 @@
       <c r="R113" t="n">
         <v>0</v>
       </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -7308,6 +7649,9 @@
       <c r="R114" t="n">
         <v>0</v>
       </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -7368,6 +7712,9 @@
       <c r="R115" t="n">
         <v>0</v>
       </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -7428,6 +7775,9 @@
       <c r="R116" t="n">
         <v>0</v>
       </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -7488,6 +7838,9 @@
       <c r="R117" t="n">
         <v>0</v>
       </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -7548,6 +7901,9 @@
       <c r="R118" t="n">
         <v>0</v>
       </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -7608,6 +7964,9 @@
       <c r="R119" t="n">
         <v>0</v>
       </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -7668,6 +8027,9 @@
       <c r="R120" t="n">
         <v>0</v>
       </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -7728,6 +8090,9 @@
       <c r="R121" t="n">
         <v>0</v>
       </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -7788,6 +8153,9 @@
       <c r="R122" t="n">
         <v>0</v>
       </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7848,6 +8216,9 @@
       <c r="R123" t="n">
         <v>0</v>
       </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7908,6 +8279,9 @@
       <c r="R124" t="n">
         <v>0</v>
       </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7968,6 +8342,9 @@
       <c r="R125" t="n">
         <v>0</v>
       </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -8028,6 +8405,9 @@
       <c r="R126" t="n">
         <v>0</v>
       </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -8088,6 +8468,9 @@
       <c r="R127" t="n">
         <v>0</v>
       </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -8148,6 +8531,9 @@
       <c r="R128" t="n">
         <v>0</v>
       </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -8208,6 +8594,9 @@
       <c r="R129" t="n">
         <v>0</v>
       </c>
+      <c r="S129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -8268,6 +8657,9 @@
       <c r="R130" t="n">
         <v>0</v>
       </c>
+      <c r="S130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -8328,6 +8720,9 @@
       <c r="R131" t="n">
         <v>0</v>
       </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -8388,6 +8783,9 @@
       <c r="R132" t="n">
         <v>0</v>
       </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -8448,6 +8846,9 @@
       <c r="R133" t="n">
         <v>0</v>
       </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -8508,6 +8909,9 @@
       <c r="R134" t="n">
         <v>0</v>
       </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -8568,6 +8972,9 @@
       <c r="R135" t="n">
         <v>0</v>
       </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -8628,6 +9035,9 @@
       <c r="R136" t="n">
         <v>0</v>
       </c>
+      <c r="S136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8688,6 +9098,9 @@
       <c r="R137" t="n">
         <v>0</v>
       </c>
+      <c r="S137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8748,6 +9161,9 @@
       <c r="R138" t="n">
         <v>0</v>
       </c>
+      <c r="S138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -8808,6 +9224,9 @@
       <c r="R139" t="n">
         <v>0</v>
       </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -8868,6 +9287,9 @@
       <c r="R140" t="n">
         <v>0</v>
       </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -8928,6 +9350,9 @@
       <c r="R141" t="n">
         <v>0</v>
       </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -8988,6 +9413,9 @@
       <c r="R142" t="n">
         <v>0</v>
       </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -9048,6 +9476,9 @@
       <c r="R143" t="n">
         <v>0</v>
       </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -9108,6 +9539,9 @@
       <c r="R144" t="n">
         <v>0</v>
       </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -9168,6 +9602,9 @@
       <c r="R145" t="n">
         <v>0</v>
       </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -9228,6 +9665,9 @@
       <c r="R146" t="n">
         <v>0</v>
       </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -9288,6 +9728,9 @@
       <c r="R147" t="n">
         <v>0</v>
       </c>
+      <c r="S147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -9348,6 +9791,9 @@
       <c r="R148" t="n">
         <v>0</v>
       </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -9408,6 +9854,9 @@
       <c r="R149" t="n">
         <v>0</v>
       </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -9468,6 +9917,9 @@
       <c r="R150" t="n">
         <v>0</v>
       </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -9528,6 +9980,9 @@
       <c r="R151" t="n">
         <v>0</v>
       </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -9588,6 +10043,9 @@
       <c r="R152" t="n">
         <v>0</v>
       </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -9648,6 +10106,9 @@
       <c r="R153" t="n">
         <v>0</v>
       </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -9708,6 +10169,9 @@
       <c r="R154" t="n">
         <v>0</v>
       </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -9768,6 +10232,9 @@
       <c r="R155" t="n">
         <v>0</v>
       </c>
+      <c r="S155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -9828,6 +10295,9 @@
       <c r="R156" t="n">
         <v>0</v>
       </c>
+      <c r="S156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9888,6 +10358,9 @@
       <c r="R157" t="n">
         <v>0</v>
       </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -9948,6 +10421,9 @@
       <c r="R158" t="n">
         <v>0</v>
       </c>
+      <c r="S158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -10008,6 +10484,9 @@
       <c r="R159" t="n">
         <v>0</v>
       </c>
+      <c r="S159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -10068,6 +10547,9 @@
       <c r="R160" t="n">
         <v>0</v>
       </c>
+      <c r="S160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -10128,6 +10610,9 @@
       <c r="R161" t="n">
         <v>0</v>
       </c>
+      <c r="S161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -10188,6 +10673,9 @@
       <c r="R162" t="n">
         <v>0</v>
       </c>
+      <c r="S162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -10248,6 +10736,9 @@
       <c r="R163" t="n">
         <v>0</v>
       </c>
+      <c r="S163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -10308,6 +10799,9 @@
       <c r="R164" t="n">
         <v>0</v>
       </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -10368,6 +10862,9 @@
       <c r="R165" t="n">
         <v>0</v>
       </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -10428,6 +10925,9 @@
       <c r="R166" t="n">
         <v>0</v>
       </c>
+      <c r="S166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -10488,6 +10988,9 @@
       <c r="R167" t="n">
         <v>0</v>
       </c>
+      <c r="S167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -10548,6 +11051,9 @@
       <c r="R168" t="n">
         <v>0</v>
       </c>
+      <c r="S168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -10608,6 +11114,9 @@
       <c r="R169" t="n">
         <v>0</v>
       </c>
+      <c r="S169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -10668,6 +11177,9 @@
       <c r="R170" t="n">
         <v>0</v>
       </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -10728,6 +11240,9 @@
       <c r="R171" t="n">
         <v>0</v>
       </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10788,6 +11303,9 @@
       <c r="R172" t="n">
         <v>0</v>
       </c>
+      <c r="S172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -10848,6 +11366,9 @@
       <c r="R173" t="n">
         <v>0</v>
       </c>
+      <c r="S173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10908,6 +11429,9 @@
       <c r="R174" t="n">
         <v>0</v>
       </c>
+      <c r="S174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -10968,6 +11492,9 @@
       <c r="R175" t="n">
         <v>0</v>
       </c>
+      <c r="S175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -11028,6 +11555,9 @@
       <c r="R176" t="n">
         <v>0</v>
       </c>
+      <c r="S176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -11088,6 +11618,9 @@
       <c r="R177" t="n">
         <v>0</v>
       </c>
+      <c r="S177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -11148,6 +11681,9 @@
       <c r="R178" t="n">
         <v>0</v>
       </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -11208,6 +11744,9 @@
       <c r="R179" t="n">
         <v>0</v>
       </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -11268,6 +11807,9 @@
       <c r="R180" t="n">
         <v>0</v>
       </c>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -11328,6 +11870,9 @@
       <c r="R181" t="n">
         <v>0</v>
       </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -11388,6 +11933,9 @@
       <c r="R182" t="n">
         <v>0</v>
       </c>
+      <c r="S182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -11448,6 +11996,9 @@
       <c r="R183" t="n">
         <v>0</v>
       </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -11508,6 +12059,9 @@
       <c r="R184" t="n">
         <v>0</v>
       </c>
+      <c r="S184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -11568,6 +12122,9 @@
       <c r="R185" t="n">
         <v>0</v>
       </c>
+      <c r="S185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -11628,6 +12185,9 @@
       <c r="R186" t="n">
         <v>0</v>
       </c>
+      <c r="S186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -11688,6 +12248,9 @@
       <c r="R187" t="n">
         <v>0</v>
       </c>
+      <c r="S187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -11748,6 +12311,9 @@
       <c r="R188" t="n">
         <v>0</v>
       </c>
+      <c r="S188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -11808,6 +12374,9 @@
       <c r="R189" t="n">
         <v>0</v>
       </c>
+      <c r="S189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -11868,6 +12437,9 @@
       <c r="R190" t="n">
         <v>0</v>
       </c>
+      <c r="S190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -11928,6 +12500,9 @@
       <c r="R191" t="n">
         <v>0</v>
       </c>
+      <c r="S191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -11988,6 +12563,9 @@
       <c r="R192" t="n">
         <v>0</v>
       </c>
+      <c r="S192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -12048,6 +12626,9 @@
       <c r="R193" t="n">
         <v>0</v>
       </c>
+      <c r="S193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -12108,6 +12689,9 @@
       <c r="R194" t="n">
         <v>0</v>
       </c>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -12168,6 +12752,9 @@
       <c r="R195" t="n">
         <v>0</v>
       </c>
+      <c r="S195" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -12228,6 +12815,9 @@
       <c r="R196" t="n">
         <v>0</v>
       </c>
+      <c r="S196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -12288,6 +12878,9 @@
       <c r="R197" t="n">
         <v>0</v>
       </c>
+      <c r="S197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -12348,6 +12941,9 @@
       <c r="R198" t="n">
         <v>0</v>
       </c>
+      <c r="S198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -12408,6 +13004,9 @@
       <c r="R199" t="n">
         <v>0</v>
       </c>
+      <c r="S199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -12468,6 +13067,9 @@
       <c r="R200" t="n">
         <v>0</v>
       </c>
+      <c r="S200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -12528,6 +13130,9 @@
       <c r="R201" t="n">
         <v>0</v>
       </c>
+      <c r="S201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -12588,6 +13193,9 @@
       <c r="R202" t="n">
         <v>0</v>
       </c>
+      <c r="S202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -12648,6 +13256,9 @@
       <c r="R203" t="n">
         <v>0</v>
       </c>
+      <c r="S203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -12708,6 +13319,9 @@
       <c r="R204" t="n">
         <v>0</v>
       </c>
+      <c r="S204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -12768,6 +13382,9 @@
       <c r="R205" t="n">
         <v>0</v>
       </c>
+      <c r="S205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -12828,6 +13445,9 @@
       <c r="R206" t="n">
         <v>0</v>
       </c>
+      <c r="S206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -12888,6 +13508,9 @@
       <c r="R207" t="n">
         <v>0</v>
       </c>
+      <c r="S207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -12948,6 +13571,9 @@
       <c r="R208" t="n">
         <v>0</v>
       </c>
+      <c r="S208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -13008,6 +13634,9 @@
       <c r="R209" t="n">
         <v>0</v>
       </c>
+      <c r="S209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -13068,6 +13697,9 @@
       <c r="R210" t="n">
         <v>0</v>
       </c>
+      <c r="S210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -13128,6 +13760,9 @@
       <c r="R211" t="n">
         <v>0</v>
       </c>
+      <c r="S211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -13188,6 +13823,9 @@
       <c r="R212" t="n">
         <v>0</v>
       </c>
+      <c r="S212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -13248,6 +13886,9 @@
       <c r="R213" t="n">
         <v>0</v>
       </c>
+      <c r="S213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -13308,6 +13949,9 @@
       <c r="R214" t="n">
         <v>0</v>
       </c>
+      <c r="S214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -13368,6 +14012,9 @@
       <c r="R215" t="n">
         <v>0</v>
       </c>
+      <c r="S215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -13428,6 +14075,9 @@
       <c r="R216" t="n">
         <v>0</v>
       </c>
+      <c r="S216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -13488,6 +14138,9 @@
       <c r="R217" t="n">
         <v>0</v>
       </c>
+      <c r="S217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -13548,6 +14201,9 @@
       <c r="R218" t="n">
         <v>0</v>
       </c>
+      <c r="S218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -13608,6 +14264,9 @@
       <c r="R219" t="n">
         <v>0</v>
       </c>
+      <c r="S219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -13668,6 +14327,9 @@
       <c r="R220" t="n">
         <v>0</v>
       </c>
+      <c r="S220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -13728,6 +14390,9 @@
       <c r="R221" t="n">
         <v>0</v>
       </c>
+      <c r="S221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -13788,6 +14453,9 @@
       <c r="R222" t="n">
         <v>0</v>
       </c>
+      <c r="S222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -13848,6 +14516,9 @@
       <c r="R223" t="n">
         <v>0</v>
       </c>
+      <c r="S223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -13908,6 +14579,9 @@
       <c r="R224" t="n">
         <v>0</v>
       </c>
+      <c r="S224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -13968,6 +14642,9 @@
       <c r="R225" t="n">
         <v>0</v>
       </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -14028,6 +14705,9 @@
       <c r="R226" t="n">
         <v>0</v>
       </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -14088,6 +14768,9 @@
       <c r="R227" t="n">
         <v>0</v>
       </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -14148,6 +14831,9 @@
       <c r="R228" t="n">
         <v>0</v>
       </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -14208,6 +14894,9 @@
       <c r="R229" t="n">
         <v>0</v>
       </c>
+      <c r="S229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -14268,6 +14957,9 @@
       <c r="R230" t="n">
         <v>0</v>
       </c>
+      <c r="S230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -14328,6 +15020,9 @@
       <c r="R231" t="n">
         <v>0</v>
       </c>
+      <c r="S231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -14388,6 +15083,9 @@
       <c r="R232" t="n">
         <v>0</v>
       </c>
+      <c r="S232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -14448,6 +15146,9 @@
       <c r="R233" t="n">
         <v>0</v>
       </c>
+      <c r="S233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -14508,6 +15209,9 @@
       <c r="R234" t="n">
         <v>0</v>
       </c>
+      <c r="S234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -14568,6 +15272,9 @@
       <c r="R235" t="n">
         <v>0</v>
       </c>
+      <c r="S235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -14628,6 +15335,9 @@
       <c r="R236" t="n">
         <v>0</v>
       </c>
+      <c r="S236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -14688,6 +15398,9 @@
       <c r="R237" t="n">
         <v>0</v>
       </c>
+      <c r="S237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -14748,6 +15461,9 @@
       <c r="R238" t="n">
         <v>0</v>
       </c>
+      <c r="S238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -14808,6 +15524,9 @@
       <c r="R239" t="n">
         <v>0</v>
       </c>
+      <c r="S239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -14868,6 +15587,9 @@
       <c r="R240" t="n">
         <v>0</v>
       </c>
+      <c r="S240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -14928,6 +15650,9 @@
       <c r="R241" t="n">
         <v>0</v>
       </c>
+      <c r="S241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -14988,6 +15713,9 @@
       <c r="R242" t="n">
         <v>0</v>
       </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -15048,6 +15776,9 @@
       <c r="R243" t="n">
         <v>0</v>
       </c>
+      <c r="S243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -15108,6 +15839,9 @@
       <c r="R244" t="n">
         <v>0</v>
       </c>
+      <c r="S244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -15168,6 +15902,9 @@
       <c r="R245" t="n">
         <v>0</v>
       </c>
+      <c r="S245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -15228,6 +15965,9 @@
       <c r="R246" t="n">
         <v>0</v>
       </c>
+      <c r="S246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -15288,6 +16028,9 @@
       <c r="R247" t="n">
         <v>0</v>
       </c>
+      <c r="S247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -15348,6 +16091,9 @@
       <c r="R248" t="n">
         <v>0</v>
       </c>
+      <c r="S248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -15408,6 +16154,9 @@
       <c r="R249" t="n">
         <v>0</v>
       </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -15468,6 +16217,9 @@
       <c r="R250" t="n">
         <v>0</v>
       </c>
+      <c r="S250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -15528,6 +16280,9 @@
       <c r="R251" t="n">
         <v>0</v>
       </c>
+      <c r="S251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -15588,6 +16343,9 @@
       <c r="R252" t="n">
         <v>0</v>
       </c>
+      <c r="S252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -15648,6 +16406,9 @@
       <c r="R253" t="n">
         <v>0</v>
       </c>
+      <c r="S253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -15708,6 +16469,9 @@
       <c r="R254" t="n">
         <v>0</v>
       </c>
+      <c r="S254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -15768,6 +16532,9 @@
       <c r="R255" t="n">
         <v>0</v>
       </c>
+      <c r="S255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -15828,6 +16595,9 @@
       <c r="R256" t="n">
         <v>0</v>
       </c>
+      <c r="S256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -15888,6 +16658,9 @@
       <c r="R257" t="n">
         <v>0</v>
       </c>
+      <c r="S257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -15948,6 +16721,9 @@
       <c r="R258" t="n">
         <v>0</v>
       </c>
+      <c r="S258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -16008,6 +16784,9 @@
       <c r="R259" t="n">
         <v>0</v>
       </c>
+      <c r="S259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -16068,6 +16847,9 @@
       <c r="R260" t="n">
         <v>1</v>
       </c>
+      <c r="S260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -16128,6 +16910,9 @@
       <c r="R261" t="n">
         <v>0</v>
       </c>
+      <c r="S261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -16188,6 +16973,9 @@
       <c r="R262" t="n">
         <v>0</v>
       </c>
+      <c r="S262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -16248,6 +17036,9 @@
       <c r="R263" t="n">
         <v>0</v>
       </c>
+      <c r="S263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -16308,6 +17099,9 @@
       <c r="R264" t="n">
         <v>0</v>
       </c>
+      <c r="S264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -16368,6 +17162,9 @@
       <c r="R265" t="n">
         <v>0</v>
       </c>
+      <c r="S265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -16428,6 +17225,9 @@
       <c r="R266" t="n">
         <v>0</v>
       </c>
+      <c r="S266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -16488,6 +17288,9 @@
       <c r="R267" t="n">
         <v>0</v>
       </c>
+      <c r="S267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -16548,6 +17351,9 @@
       <c r="R268" t="n">
         <v>0</v>
       </c>
+      <c r="S268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -16608,6 +17414,9 @@
       <c r="R269" t="n">
         <v>0</v>
       </c>
+      <c r="S269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -16668,6 +17477,9 @@
       <c r="R270" t="n">
         <v>0</v>
       </c>
+      <c r="S270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -16728,6 +17540,9 @@
       <c r="R271" t="n">
         <v>0</v>
       </c>
+      <c r="S271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -16788,6 +17603,9 @@
       <c r="R272" t="n">
         <v>0</v>
       </c>
+      <c r="S272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -16848,6 +17666,9 @@
       <c r="R273" t="n">
         <v>0</v>
       </c>
+      <c r="S273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -16908,6 +17729,9 @@
       <c r="R274" t="n">
         <v>0</v>
       </c>
+      <c r="S274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -16968,6 +17792,9 @@
       <c r="R275" t="n">
         <v>0</v>
       </c>
+      <c r="S275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -17028,6 +17855,9 @@
       <c r="R276" t="n">
         <v>0</v>
       </c>
+      <c r="S276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -17088,6 +17918,9 @@
       <c r="R277" t="n">
         <v>0</v>
       </c>
+      <c r="S277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -17148,6 +17981,9 @@
       <c r="R278" t="n">
         <v>0</v>
       </c>
+      <c r="S278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -17208,6 +18044,9 @@
       <c r="R279" t="n">
         <v>0</v>
       </c>
+      <c r="S279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -17268,6 +18107,9 @@
       <c r="R280" t="n">
         <v>0</v>
       </c>
+      <c r="S280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -17328,6 +18170,9 @@
       <c r="R281" t="n">
         <v>0</v>
       </c>
+      <c r="S281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -17388,6 +18233,9 @@
       <c r="R282" t="n">
         <v>0</v>
       </c>
+      <c r="S282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -17448,6 +18296,9 @@
       <c r="R283" t="n">
         <v>0</v>
       </c>
+      <c r="S283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -17508,6 +18359,9 @@
       <c r="R284" t="n">
         <v>0</v>
       </c>
+      <c r="S284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -17568,6 +18422,9 @@
       <c r="R285" t="n">
         <v>0</v>
       </c>
+      <c r="S285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -17628,6 +18485,9 @@
       <c r="R286" t="n">
         <v>0</v>
       </c>
+      <c r="S286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -17688,6 +18548,9 @@
       <c r="R287" t="n">
         <v>0</v>
       </c>
+      <c r="S287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -17748,6 +18611,9 @@
       <c r="R288" t="n">
         <v>0</v>
       </c>
+      <c r="S288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -17808,6 +18674,9 @@
       <c r="R289" t="n">
         <v>0</v>
       </c>
+      <c r="S289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -17868,6 +18737,9 @@
       <c r="R290" t="n">
         <v>0</v>
       </c>
+      <c r="S290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -17928,6 +18800,9 @@
       <c r="R291" t="n">
         <v>0</v>
       </c>
+      <c r="S291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -17988,6 +18863,9 @@
       <c r="R292" t="n">
         <v>0</v>
       </c>
+      <c r="S292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -18048,6 +18926,9 @@
       <c r="R293" t="n">
         <v>1</v>
       </c>
+      <c r="S293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -18108,6 +18989,9 @@
       <c r="R294" t="n">
         <v>0</v>
       </c>
+      <c r="S294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -18168,6 +19052,9 @@
       <c r="R295" t="n">
         <v>0</v>
       </c>
+      <c r="S295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -18228,6 +19115,9 @@
       <c r="R296" t="n">
         <v>0</v>
       </c>
+      <c r="S296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -18288,6 +19178,9 @@
       <c r="R297" t="n">
         <v>0</v>
       </c>
+      <c r="S297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -18348,6 +19241,9 @@
       <c r="R298" t="n">
         <v>0</v>
       </c>
+      <c r="S298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -18408,6 +19304,9 @@
       <c r="R299" t="n">
         <v>0</v>
       </c>
+      <c r="S299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -18468,6 +19367,9 @@
       <c r="R300" t="n">
         <v>2</v>
       </c>
+      <c r="S300" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -18528,6 +19430,9 @@
       <c r="R301" t="n">
         <v>0</v>
       </c>
+      <c r="S301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -18588,6 +19493,9 @@
       <c r="R302" t="n">
         <v>0</v>
       </c>
+      <c r="S302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -18648,6 +19556,9 @@
       <c r="R303" t="n">
         <v>0</v>
       </c>
+      <c r="S303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -18708,6 +19619,9 @@
       <c r="R304" t="n">
         <v>0</v>
       </c>
+      <c r="S304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -18768,6 +19682,9 @@
       <c r="R305" t="n">
         <v>0</v>
       </c>
+      <c r="S305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -18828,6 +19745,9 @@
       <c r="R306" t="n">
         <v>0</v>
       </c>
+      <c r="S306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -18888,6 +19808,9 @@
       <c r="R307" t="n">
         <v>0</v>
       </c>
+      <c r="S307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -18948,6 +19871,9 @@
       <c r="R308" t="n">
         <v>0</v>
       </c>
+      <c r="S308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -19008,6 +19934,9 @@
       <c r="R309" t="n">
         <v>0</v>
       </c>
+      <c r="S309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -19068,6 +19997,9 @@
       <c r="R310" t="n">
         <v>0</v>
       </c>
+      <c r="S310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -19128,6 +20060,9 @@
       <c r="R311" t="n">
         <v>0</v>
       </c>
+      <c r="S311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -19188,6 +20123,9 @@
       <c r="R312" t="n">
         <v>0</v>
       </c>
+      <c r="S312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -19248,6 +20186,9 @@
       <c r="R313" t="n">
         <v>0</v>
       </c>
+      <c r="S313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -19308,6 +20249,9 @@
       <c r="R314" t="n">
         <v>0</v>
       </c>
+      <c r="S314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -19368,6 +20312,9 @@
       <c r="R315" t="n">
         <v>0</v>
       </c>
+      <c r="S315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -19428,6 +20375,9 @@
       <c r="R316" t="n">
         <v>0</v>
       </c>
+      <c r="S316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -19488,6 +20438,9 @@
       <c r="R317" t="n">
         <v>0</v>
       </c>
+      <c r="S317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -19548,6 +20501,9 @@
       <c r="R318" t="n">
         <v>0</v>
       </c>
+      <c r="S318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -19608,6 +20564,9 @@
       <c r="R319" t="n">
         <v>0</v>
       </c>
+      <c r="S319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -19668,6 +20627,9 @@
       <c r="R320" t="n">
         <v>0</v>
       </c>
+      <c r="S320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -19728,6 +20690,9 @@
       <c r="R321" t="n">
         <v>0</v>
       </c>
+      <c r="S321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -19788,6 +20753,9 @@
       <c r="R322" t="n">
         <v>0</v>
       </c>
+      <c r="S322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -19848,6 +20816,9 @@
       <c r="R323" t="n">
         <v>0</v>
       </c>
+      <c r="S323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -19908,6 +20879,9 @@
       <c r="R324" t="n">
         <v>0</v>
       </c>
+      <c r="S324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -19968,6 +20942,9 @@
       <c r="R325" t="n">
         <v>0</v>
       </c>
+      <c r="S325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -20028,6 +21005,9 @@
       <c r="R326" t="n">
         <v>0</v>
       </c>
+      <c r="S326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -20088,6 +21068,9 @@
       <c r="R327" t="n">
         <v>0</v>
       </c>
+      <c r="S327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -20148,6 +21131,9 @@
       <c r="R328" t="n">
         <v>2</v>
       </c>
+      <c r="S328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -20208,6 +21194,9 @@
       <c r="R329" t="n">
         <v>1</v>
       </c>
+      <c r="S329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -20268,6 +21257,9 @@
       <c r="R330" t="n">
         <v>0</v>
       </c>
+      <c r="S330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -20328,6 +21320,9 @@
       <c r="R331" t="n">
         <v>0</v>
       </c>
+      <c r="S331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -20388,6 +21383,9 @@
       <c r="R332" t="n">
         <v>0</v>
       </c>
+      <c r="S332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -20448,6 +21446,9 @@
       <c r="R333" t="n">
         <v>0</v>
       </c>
+      <c r="S333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -20508,6 +21509,9 @@
       <c r="R334" t="n">
         <v>0</v>
       </c>
+      <c r="S334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -20568,6 +21572,9 @@
       <c r="R335" t="n">
         <v>0</v>
       </c>
+      <c r="S335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -20628,6 +21635,9 @@
       <c r="R336" t="n">
         <v>0</v>
       </c>
+      <c r="S336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -20688,6 +21698,9 @@
       <c r="R337" t="n">
         <v>0</v>
       </c>
+      <c r="S337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -20748,6 +21761,9 @@
       <c r="R338" t="n">
         <v>0</v>
       </c>
+      <c r="S338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -20808,6 +21824,9 @@
       <c r="R339" t="n">
         <v>0</v>
       </c>
+      <c r="S339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -20868,6 +21887,9 @@
       <c r="R340" t="n">
         <v>0</v>
       </c>
+      <c r="S340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -20928,6 +21950,9 @@
       <c r="R341" t="n">
         <v>0</v>
       </c>
+      <c r="S341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -20988,6 +22013,9 @@
       <c r="R342" t="n">
         <v>0</v>
       </c>
+      <c r="S342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -21048,6 +22076,9 @@
       <c r="R343" t="n">
         <v>0</v>
       </c>
+      <c r="S343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -21108,6 +22139,9 @@
       <c r="R344" t="n">
         <v>0</v>
       </c>
+      <c r="S344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -21168,6 +22202,9 @@
       <c r="R345" t="n">
         <v>0</v>
       </c>
+      <c r="S345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -21228,6 +22265,9 @@
       <c r="R346" t="n">
         <v>0</v>
       </c>
+      <c r="S346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -21288,6 +22328,9 @@
       <c r="R347" t="n">
         <v>0</v>
       </c>
+      <c r="S347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -21348,6 +22391,9 @@
       <c r="R348" t="n">
         <v>0</v>
       </c>
+      <c r="S348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -21408,6 +22454,9 @@
       <c r="R349" t="n">
         <v>0</v>
       </c>
+      <c r="S349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -21468,6 +22517,9 @@
       <c r="R350" t="n">
         <v>0</v>
       </c>
+      <c r="S350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -21528,6 +22580,9 @@
       <c r="R351" t="n">
         <v>0</v>
       </c>
+      <c r="S351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -21588,6 +22643,9 @@
       <c r="R352" t="n">
         <v>0</v>
       </c>
+      <c r="S352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -21648,6 +22706,9 @@
       <c r="R353" t="n">
         <v>0</v>
       </c>
+      <c r="S353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -21708,6 +22769,9 @@
       <c r="R354" t="n">
         <v>0</v>
       </c>
+      <c r="S354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -21768,6 +22832,9 @@
       <c r="R355" t="n">
         <v>2</v>
       </c>
+      <c r="S355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -21828,6 +22895,9 @@
       <c r="R356" t="n">
         <v>0</v>
       </c>
+      <c r="S356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -21888,6 +22958,9 @@
       <c r="R357" t="n">
         <v>0</v>
       </c>
+      <c r="S357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -21948,6 +23021,9 @@
       <c r="R358" t="n">
         <v>0</v>
       </c>
+      <c r="S358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -22008,6 +23084,9 @@
       <c r="R359" t="n">
         <v>0</v>
       </c>
+      <c r="S359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -22068,6 +23147,9 @@
       <c r="R360" t="n">
         <v>0</v>
       </c>
+      <c r="S360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -22128,6 +23210,9 @@
       <c r="R361" t="n">
         <v>0</v>
       </c>
+      <c r="S361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -22188,6 +23273,9 @@
       <c r="R362" t="n">
         <v>0</v>
       </c>
+      <c r="S362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -22248,6 +23336,9 @@
       <c r="R363" t="n">
         <v>0</v>
       </c>
+      <c r="S363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -22308,6 +23399,9 @@
       <c r="R364" t="n">
         <v>0</v>
       </c>
+      <c r="S364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -22368,6 +23462,9 @@
       <c r="R365" t="n">
         <v>0</v>
       </c>
+      <c r="S365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -22428,6 +23525,9 @@
       <c r="R366" t="n">
         <v>0</v>
       </c>
+      <c r="S366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -22488,6 +23588,9 @@
       <c r="R367" t="n">
         <v>0</v>
       </c>
+      <c r="S367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -22548,6 +23651,9 @@
       <c r="R368" t="n">
         <v>0</v>
       </c>
+      <c r="S368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -22608,6 +23714,9 @@
       <c r="R369" t="n">
         <v>0</v>
       </c>
+      <c r="S369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -22668,6 +23777,9 @@
       <c r="R370" t="n">
         <v>0</v>
       </c>
+      <c r="S370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -22728,6 +23840,9 @@
       <c r="R371" t="n">
         <v>0</v>
       </c>
+      <c r="S371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -22788,6 +23903,9 @@
       <c r="R372" t="n">
         <v>0</v>
       </c>
+      <c r="S372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -22848,6 +23966,9 @@
       <c r="R373" t="n">
         <v>0</v>
       </c>
+      <c r="S373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -22908,6 +24029,9 @@
       <c r="R374" t="n">
         <v>0</v>
       </c>
+      <c r="S374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -22968,6 +24092,9 @@
       <c r="R375" t="n">
         <v>0</v>
       </c>
+      <c r="S375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -23028,6 +24155,9 @@
       <c r="R376" t="n">
         <v>0</v>
       </c>
+      <c r="S376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -23088,6 +24218,9 @@
       <c r="R377" t="n">
         <v>0</v>
       </c>
+      <c r="S377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -23148,6 +24281,9 @@
       <c r="R378" t="n">
         <v>0</v>
       </c>
+      <c r="S378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -23208,6 +24344,9 @@
       <c r="R379" t="n">
         <v>0</v>
       </c>
+      <c r="S379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -23268,6 +24407,9 @@
       <c r="R380" t="n">
         <v>0</v>
       </c>
+      <c r="S380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -23328,6 +24470,9 @@
       <c r="R381" t="n">
         <v>2</v>
       </c>
+      <c r="S381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -23388,6 +24533,9 @@
       <c r="R382" t="n">
         <v>0</v>
       </c>
+      <c r="S382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -23448,6 +24596,9 @@
       <c r="R383" t="n">
         <v>0</v>
       </c>
+      <c r="S383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -23508,6 +24659,9 @@
       <c r="R384" t="n">
         <v>0</v>
       </c>
+      <c r="S384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -23568,6 +24722,9 @@
       <c r="R385" t="n">
         <v>0</v>
       </c>
+      <c r="S385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -23628,6 +24785,9 @@
       <c r="R386" t="n">
         <v>0</v>
       </c>
+      <c r="S386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -23688,6 +24848,9 @@
       <c r="R387" t="n">
         <v>0</v>
       </c>
+      <c r="S387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -23748,6 +24911,9 @@
       <c r="R388" t="n">
         <v>0</v>
       </c>
+      <c r="S388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -23808,6 +24974,9 @@
       <c r="R389" t="n">
         <v>0</v>
       </c>
+      <c r="S389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -23868,6 +25037,9 @@
       <c r="R390" t="n">
         <v>0</v>
       </c>
+      <c r="S390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -23928,6 +25100,9 @@
       <c r="R391" t="n">
         <v>0</v>
       </c>
+      <c r="S391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -23988,6 +25163,9 @@
       <c r="R392" t="n">
         <v>0</v>
       </c>
+      <c r="S392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -24048,6 +25226,9 @@
       <c r="R393" t="n">
         <v>0</v>
       </c>
+      <c r="S393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -24108,6 +25289,9 @@
       <c r="R394" t="n">
         <v>0</v>
       </c>
+      <c r="S394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -24168,6 +25352,9 @@
       <c r="R395" t="n">
         <v>0</v>
       </c>
+      <c r="S395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -24228,6 +25415,9 @@
       <c r="R396" t="n">
         <v>0</v>
       </c>
+      <c r="S396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -24288,6 +25478,9 @@
       <c r="R397" t="n">
         <v>0</v>
       </c>
+      <c r="S397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -24348,6 +25541,9 @@
       <c r="R398" t="n">
         <v>0</v>
       </c>
+      <c r="S398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -24408,6 +25604,9 @@
       <c r="R399" t="n">
         <v>0</v>
       </c>
+      <c r="S399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -24468,6 +25667,9 @@
       <c r="R400" t="n">
         <v>0</v>
       </c>
+      <c r="S400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -24528,6 +25730,9 @@
       <c r="R401" t="n">
         <v>0</v>
       </c>
+      <c r="S401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -24588,6 +25793,9 @@
       <c r="R402" t="n">
         <v>0</v>
       </c>
+      <c r="S402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -24648,6 +25856,9 @@
       <c r="R403" t="n">
         <v>0</v>
       </c>
+      <c r="S403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -24708,6 +25919,9 @@
       <c r="R404" t="n">
         <v>0</v>
       </c>
+      <c r="S404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -24768,6 +25982,9 @@
       <c r="R405" t="n">
         <v>0</v>
       </c>
+      <c r="S405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -24828,6 +26045,9 @@
       <c r="R406" t="n">
         <v>0</v>
       </c>
+      <c r="S406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -24888,6 +26108,9 @@
       <c r="R407" t="n">
         <v>0</v>
       </c>
+      <c r="S407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -24948,6 +26171,9 @@
       <c r="R408" t="n">
         <v>0</v>
       </c>
+      <c r="S408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -25008,6 +26234,9 @@
       <c r="R409" t="n">
         <v>0</v>
       </c>
+      <c r="S409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -25068,6 +26297,9 @@
       <c r="R410" t="n">
         <v>0</v>
       </c>
+      <c r="S410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -25128,6 +26360,9 @@
       <c r="R411" t="n">
         <v>0</v>
       </c>
+      <c r="S411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -25188,6 +26423,9 @@
       <c r="R412" t="n">
         <v>0</v>
       </c>
+      <c r="S412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -25248,6 +26486,9 @@
       <c r="R413" t="n">
         <v>0</v>
       </c>
+      <c r="S413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -25308,6 +26549,9 @@
       <c r="R414" t="n">
         <v>0</v>
       </c>
+      <c r="S414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -25368,6 +26612,9 @@
       <c r="R415" t="n">
         <v>0</v>
       </c>
+      <c r="S415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -25428,6 +26675,9 @@
       <c r="R416" t="n">
         <v>0</v>
       </c>
+      <c r="S416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -25488,6 +26738,9 @@
       <c r="R417" t="n">
         <v>0</v>
       </c>
+      <c r="S417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -25548,6 +26801,9 @@
       <c r="R418" t="n">
         <v>0</v>
       </c>
+      <c r="S418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -25608,6 +26864,9 @@
       <c r="R419" t="n">
         <v>0</v>
       </c>
+      <c r="S419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -25668,6 +26927,9 @@
       <c r="R420" t="n">
         <v>0</v>
       </c>
+      <c r="S420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -25728,6 +26990,9 @@
       <c r="R421" t="n">
         <v>0</v>
       </c>
+      <c r="S421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -25788,6 +27053,9 @@
       <c r="R422" t="n">
         <v>0</v>
       </c>
+      <c r="S422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -25848,6 +27116,9 @@
       <c r="R423" t="n">
         <v>0</v>
       </c>
+      <c r="S423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -25908,6 +27179,9 @@
       <c r="R424" t="n">
         <v>0</v>
       </c>
+      <c r="S424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -25968,6 +27242,9 @@
       <c r="R425" t="n">
         <v>0</v>
       </c>
+      <c r="S425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -26028,6 +27305,9 @@
       <c r="R426" t="n">
         <v>0</v>
       </c>
+      <c r="S426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -26088,6 +27368,9 @@
       <c r="R427" t="n">
         <v>0</v>
       </c>
+      <c r="S427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -26148,6 +27431,9 @@
       <c r="R428" t="n">
         <v>0</v>
       </c>
+      <c r="S428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -26208,6 +27494,9 @@
       <c r="R429" t="n">
         <v>0</v>
       </c>
+      <c r="S429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -26268,6 +27557,9 @@
       <c r="R430" t="n">
         <v>0</v>
       </c>
+      <c r="S430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -26328,6 +27620,9 @@
       <c r="R431" t="n">
         <v>0</v>
       </c>
+      <c r="S431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -26388,6 +27683,9 @@
       <c r="R432" t="n">
         <v>0</v>
       </c>
+      <c r="S432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -26448,6 +27746,9 @@
       <c r="R433" t="n">
         <v>0</v>
       </c>
+      <c r="S433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -26508,6 +27809,9 @@
       <c r="R434" t="n">
         <v>0</v>
       </c>
+      <c r="S434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -26568,6 +27872,9 @@
       <c r="R435" t="n">
         <v>0</v>
       </c>
+      <c r="S435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -26628,6 +27935,9 @@
       <c r="R436" t="n">
         <v>0</v>
       </c>
+      <c r="S436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -26688,6 +27998,9 @@
       <c r="R437" t="n">
         <v>0</v>
       </c>
+      <c r="S437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -26748,6 +28061,9 @@
       <c r="R438" t="n">
         <v>0</v>
       </c>
+      <c r="S438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -26808,6 +28124,9 @@
       <c r="R439" t="n">
         <v>0</v>
       </c>
+      <c r="S439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -26868,6 +28187,9 @@
       <c r="R440" t="n">
         <v>0</v>
       </c>
+      <c r="S440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -26928,6 +28250,9 @@
       <c r="R441" t="n">
         <v>0</v>
       </c>
+      <c r="S441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -26988,6 +28313,9 @@
       <c r="R442" t="n">
         <v>0</v>
       </c>
+      <c r="S442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -27048,6 +28376,9 @@
       <c r="R443" t="n">
         <v>0</v>
       </c>
+      <c r="S443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -27108,6 +28439,9 @@
       <c r="R444" t="n">
         <v>0</v>
       </c>
+      <c r="S444" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -27168,6 +28502,9 @@
       <c r="R445" t="n">
         <v>0</v>
       </c>
+      <c r="S445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -27228,6 +28565,9 @@
       <c r="R446" t="n">
         <v>0</v>
       </c>
+      <c r="S446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -27288,6 +28628,9 @@
       <c r="R447" t="n">
         <v>0</v>
       </c>
+      <c r="S447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -27348,6 +28691,9 @@
       <c r="R448" t="n">
         <v>0</v>
       </c>
+      <c r="S448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -27408,6 +28754,9 @@
       <c r="R449" t="n">
         <v>2</v>
       </c>
+      <c r="S449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -27468,6 +28817,9 @@
       <c r="R450" t="n">
         <v>0</v>
       </c>
+      <c r="S450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -27528,6 +28880,9 @@
       <c r="R451" t="n">
         <v>0</v>
       </c>
+      <c r="S451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -27588,6 +28943,9 @@
       <c r="R452" t="n">
         <v>0</v>
       </c>
+      <c r="S452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -27648,6 +29006,9 @@
       <c r="R453" t="n">
         <v>0</v>
       </c>
+      <c r="S453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -27708,6 +29069,9 @@
       <c r="R454" t="n">
         <v>0</v>
       </c>
+      <c r="S454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -27768,6 +29132,9 @@
       <c r="R455" t="n">
         <v>0</v>
       </c>
+      <c r="S455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -27828,6 +29195,9 @@
       <c r="R456" t="n">
         <v>0</v>
       </c>
+      <c r="S456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -27888,6 +29258,9 @@
       <c r="R457" t="n">
         <v>0</v>
       </c>
+      <c r="S457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -27948,6 +29321,9 @@
       <c r="R458" t="n">
         <v>0</v>
       </c>
+      <c r="S458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -28008,6 +29384,9 @@
       <c r="R459" t="n">
         <v>0</v>
       </c>
+      <c r="S459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -28068,6 +29447,9 @@
       <c r="R460" t="n">
         <v>0</v>
       </c>
+      <c r="S460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -28128,6 +29510,9 @@
       <c r="R461" t="n">
         <v>0</v>
       </c>
+      <c r="S461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -28188,6 +29573,9 @@
       <c r="R462" t="n">
         <v>0</v>
       </c>
+      <c r="S462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -28248,6 +29636,9 @@
       <c r="R463" t="n">
         <v>0</v>
       </c>
+      <c r="S463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -28308,6 +29699,9 @@
       <c r="R464" t="n">
         <v>0</v>
       </c>
+      <c r="S464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -28368,6 +29762,9 @@
       <c r="R465" t="n">
         <v>0</v>
       </c>
+      <c r="S465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -28428,6 +29825,9 @@
       <c r="R466" t="n">
         <v>0</v>
       </c>
+      <c r="S466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -28488,6 +29888,9 @@
       <c r="R467" t="n">
         <v>0</v>
       </c>
+      <c r="S467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -28548,6 +29951,9 @@
       <c r="R468" t="n">
         <v>0</v>
       </c>
+      <c r="S468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -28608,6 +30014,9 @@
       <c r="R469" t="n">
         <v>0</v>
       </c>
+      <c r="S469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -28668,6 +30077,9 @@
       <c r="R470" t="n">
         <v>0</v>
       </c>
+      <c r="S470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -28728,6 +30140,9 @@
       <c r="R471" t="n">
         <v>0</v>
       </c>
+      <c r="S471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -28788,6 +30203,9 @@
       <c r="R472" t="n">
         <v>0</v>
       </c>
+      <c r="S472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -28848,6 +30266,9 @@
       <c r="R473" t="n">
         <v>0</v>
       </c>
+      <c r="S473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -28908,6 +30329,9 @@
       <c r="R474" t="n">
         <v>0</v>
       </c>
+      <c r="S474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -28968,6 +30392,9 @@
       <c r="R475" t="n">
         <v>0</v>
       </c>
+      <c r="S475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -29028,6 +30455,9 @@
       <c r="R476" t="n">
         <v>0</v>
       </c>
+      <c r="S476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -29088,6 +30518,9 @@
       <c r="R477" t="n">
         <v>0</v>
       </c>
+      <c r="S477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -29148,6 +30581,9 @@
       <c r="R478" t="n">
         <v>0</v>
       </c>
+      <c r="S478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -29208,6 +30644,9 @@
       <c r="R479" t="n">
         <v>0</v>
       </c>
+      <c r="S479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -29268,6 +30707,9 @@
       <c r="R480" t="n">
         <v>0</v>
       </c>
+      <c r="S480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -29328,6 +30770,9 @@
       <c r="R481" t="n">
         <v>0</v>
       </c>
+      <c r="S481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -29388,6 +30833,9 @@
       <c r="R482" t="n">
         <v>0</v>
       </c>
+      <c r="S482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -29448,6 +30896,9 @@
       <c r="R483" t="n">
         <v>0</v>
       </c>
+      <c r="S483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -29508,6 +30959,9 @@
       <c r="R484" t="n">
         <v>0</v>
       </c>
+      <c r="S484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -29568,6 +31022,9 @@
       <c r="R485" t="n">
         <v>0</v>
       </c>
+      <c r="S485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -29628,6 +31085,9 @@
       <c r="R486" t="n">
         <v>0</v>
       </c>
+      <c r="S486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -29688,6 +31148,9 @@
       <c r="R487" t="n">
         <v>0</v>
       </c>
+      <c r="S487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -29748,6 +31211,9 @@
       <c r="R488" t="n">
         <v>0</v>
       </c>
+      <c r="S488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -29808,6 +31274,9 @@
       <c r="R489" t="n">
         <v>2</v>
       </c>
+      <c r="S489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -29868,6 +31337,9 @@
       <c r="R490" t="n">
         <v>0</v>
       </c>
+      <c r="S490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -29928,6 +31400,9 @@
       <c r="R491" t="n">
         <v>0</v>
       </c>
+      <c r="S491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -29988,6 +31463,9 @@
       <c r="R492" t="n">
         <v>0</v>
       </c>
+      <c r="S492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -30048,6 +31526,9 @@
       <c r="R493" t="n">
         <v>0</v>
       </c>
+      <c r="S493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -30108,6 +31589,9 @@
       <c r="R494" t="n">
         <v>0</v>
       </c>
+      <c r="S494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -30168,6 +31652,9 @@
       <c r="R495" t="n">
         <v>0</v>
       </c>
+      <c r="S495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -30228,6 +31715,9 @@
       <c r="R496" t="n">
         <v>0</v>
       </c>
+      <c r="S496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -30288,6 +31778,9 @@
       <c r="R497" t="n">
         <v>0</v>
       </c>
+      <c r="S497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -30348,6 +31841,9 @@
       <c r="R498" t="n">
         <v>0</v>
       </c>
+      <c r="S498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -30408,6 +31904,9 @@
       <c r="R499" t="n">
         <v>0</v>
       </c>
+      <c r="S499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -30468,6 +31967,9 @@
       <c r="R500" t="n">
         <v>0</v>
       </c>
+      <c r="S500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -30528,6 +32030,9 @@
       <c r="R501" t="n">
         <v>0</v>
       </c>
+      <c r="S501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -30588,6 +32093,9 @@
       <c r="R502" t="n">
         <v>0</v>
       </c>
+      <c r="S502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -30648,6 +32156,9 @@
       <c r="R503" t="n">
         <v>0</v>
       </c>
+      <c r="S503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -30708,6 +32219,9 @@
       <c r="R504" t="n">
         <v>1</v>
       </c>
+      <c r="S504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -30768,6 +32282,9 @@
       <c r="R505" t="n">
         <v>0</v>
       </c>
+      <c r="S505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -30828,6 +32345,9 @@
       <c r="R506" t="n">
         <v>0</v>
       </c>
+      <c r="S506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -30888,6 +32408,9 @@
       <c r="R507" t="n">
         <v>0</v>
       </c>
+      <c r="S507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -30948,6 +32471,9 @@
       <c r="R508" t="n">
         <v>0</v>
       </c>
+      <c r="S508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -31008,6 +32534,9 @@
       <c r="R509" t="n">
         <v>0</v>
       </c>
+      <c r="S509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -31068,6 +32597,9 @@
       <c r="R510" t="n">
         <v>0</v>
       </c>
+      <c r="S510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -31128,6 +32660,9 @@
       <c r="R511" t="n">
         <v>0</v>
       </c>
+      <c r="S511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -31188,6 +32723,9 @@
       <c r="R512" t="n">
         <v>0</v>
       </c>
+      <c r="S512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -31248,6 +32786,9 @@
       <c r="R513" t="n">
         <v>0</v>
       </c>
+      <c r="S513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -31308,6 +32849,9 @@
       <c r="R514" t="n">
         <v>0</v>
       </c>
+      <c r="S514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -31368,6 +32912,9 @@
       <c r="R515" t="n">
         <v>2</v>
       </c>
+      <c r="S515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -31428,6 +32975,9 @@
       <c r="R516" t="n">
         <v>0</v>
       </c>
+      <c r="S516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -31488,6 +33038,9 @@
       <c r="R517" t="n">
         <v>0</v>
       </c>
+      <c r="S517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -31548,6 +33101,9 @@
       <c r="R518" t="n">
         <v>0</v>
       </c>
+      <c r="S518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -31608,6 +33164,9 @@
       <c r="R519" t="n">
         <v>0</v>
       </c>
+      <c r="S519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -31668,6 +33227,9 @@
       <c r="R520" t="n">
         <v>0</v>
       </c>
+      <c r="S520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -31728,6 +33290,9 @@
       <c r="R521" t="n">
         <v>0</v>
       </c>
+      <c r="S521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -31788,6 +33353,9 @@
       <c r="R522" t="n">
         <v>0</v>
       </c>
+      <c r="S522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -31848,6 +33416,9 @@
       <c r="R523" t="n">
         <v>0</v>
       </c>
+      <c r="S523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -31908,6 +33479,9 @@
       <c r="R524" t="n">
         <v>0</v>
       </c>
+      <c r="S524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -31968,6 +33542,9 @@
       <c r="R525" t="n">
         <v>1</v>
       </c>
+      <c r="S525" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -32028,6 +33605,9 @@
       <c r="R526" t="n">
         <v>0</v>
       </c>
+      <c r="S526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -32088,6 +33668,9 @@
       <c r="R527" t="n">
         <v>0</v>
       </c>
+      <c r="S527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -32148,6 +33731,9 @@
       <c r="R528" t="n">
         <v>0</v>
       </c>
+      <c r="S528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -32208,6 +33794,9 @@
       <c r="R529" t="n">
         <v>0</v>
       </c>
+      <c r="S529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -32268,6 +33857,9 @@
       <c r="R530" t="n">
         <v>0</v>
       </c>
+      <c r="S530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -32328,6 +33920,9 @@
       <c r="R531" t="n">
         <v>0</v>
       </c>
+      <c r="S531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -32388,6 +33983,9 @@
       <c r="R532" t="n">
         <v>2</v>
       </c>
+      <c r="S532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -32448,6 +34046,9 @@
       <c r="R533" t="n">
         <v>0</v>
       </c>
+      <c r="S533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -32508,6 +34109,9 @@
       <c r="R534" t="n">
         <v>0</v>
       </c>
+      <c r="S534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -32568,6 +34172,9 @@
       <c r="R535" t="n">
         <v>0</v>
       </c>
+      <c r="S535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -32628,6 +34235,9 @@
       <c r="R536" t="n">
         <v>0</v>
       </c>
+      <c r="S536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -32688,6 +34298,9 @@
       <c r="R537" t="n">
         <v>0</v>
       </c>
+      <c r="S537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -32748,6 +34361,9 @@
       <c r="R538" t="n">
         <v>0</v>
       </c>
+      <c r="S538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -32808,6 +34424,9 @@
       <c r="R539" t="n">
         <v>0</v>
       </c>
+      <c r="S539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -32868,6 +34487,9 @@
       <c r="R540" t="n">
         <v>0</v>
       </c>
+      <c r="S540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -32928,6 +34550,9 @@
       <c r="R541" t="n">
         <v>0</v>
       </c>
+      <c r="S541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -32988,6 +34613,9 @@
       <c r="R542" t="n">
         <v>0</v>
       </c>
+      <c r="S542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -33048,6 +34676,9 @@
       <c r="R543" t="n">
         <v>0</v>
       </c>
+      <c r="S543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -33108,6 +34739,9 @@
       <c r="R544" t="n">
         <v>0</v>
       </c>
+      <c r="S544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -33168,6 +34802,9 @@
       <c r="R545" t="n">
         <v>0</v>
       </c>
+      <c r="S545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -33228,6 +34865,9 @@
       <c r="R546" t="n">
         <v>0</v>
       </c>
+      <c r="S546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -33288,6 +34928,9 @@
       <c r="R547" t="n">
         <v>0</v>
       </c>
+      <c r="S547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -33348,6 +34991,9 @@
       <c r="R548" t="n">
         <v>0</v>
       </c>
+      <c r="S548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -33408,6 +35054,9 @@
       <c r="R549" t="n">
         <v>0</v>
       </c>
+      <c r="S549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -33468,6 +35117,9 @@
       <c r="R550" t="n">
         <v>0</v>
       </c>
+      <c r="S550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -33528,6 +35180,9 @@
       <c r="R551" t="n">
         <v>0</v>
       </c>
+      <c r="S551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -33588,6 +35243,9 @@
       <c r="R552" t="n">
         <v>0</v>
       </c>
+      <c r="S552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -33648,6 +35306,9 @@
       <c r="R553" t="n">
         <v>0</v>
       </c>
+      <c r="S553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -33708,6 +35369,9 @@
       <c r="R554" t="n">
         <v>0</v>
       </c>
+      <c r="S554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -33768,6 +35432,9 @@
       <c r="R555" t="n">
         <v>0</v>
       </c>
+      <c r="S555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -33828,6 +35495,9 @@
       <c r="R556" t="n">
         <v>0</v>
       </c>
+      <c r="S556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -33888,6 +35558,9 @@
       <c r="R557" t="n">
         <v>0</v>
       </c>
+      <c r="S557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -33948,6 +35621,9 @@
       <c r="R558" t="n">
         <v>0</v>
       </c>
+      <c r="S558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -34008,6 +35684,9 @@
       <c r="R559" t="n">
         <v>0</v>
       </c>
+      <c r="S559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -34068,6 +35747,9 @@
       <c r="R560" t="n">
         <v>0</v>
       </c>
+      <c r="S560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -34128,6 +35810,9 @@
       <c r="R561" t="n">
         <v>0</v>
       </c>
+      <c r="S561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -34188,6 +35873,9 @@
       <c r="R562" t="n">
         <v>0</v>
       </c>
+      <c r="S562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -34248,6 +35936,9 @@
       <c r="R563" t="n">
         <v>0</v>
       </c>
+      <c r="S563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -34308,6 +35999,9 @@
       <c r="R564" t="n">
         <v>0</v>
       </c>
+      <c r="S564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -34368,6 +36062,9 @@
       <c r="R565" t="n">
         <v>0</v>
       </c>
+      <c r="S565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -34428,6 +36125,9 @@
       <c r="R566" t="n">
         <v>0</v>
       </c>
+      <c r="S566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -34488,6 +36188,9 @@
       <c r="R567" t="n">
         <v>0</v>
       </c>
+      <c r="S567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -34548,6 +36251,9 @@
       <c r="R568" t="n">
         <v>0</v>
       </c>
+      <c r="S568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -34608,6 +36314,9 @@
       <c r="R569" t="n">
         <v>0</v>
       </c>
+      <c r="S569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -34668,6 +36377,9 @@
       <c r="R570" t="n">
         <v>0</v>
       </c>
+      <c r="S570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -34728,6 +36440,9 @@
       <c r="R571" t="n">
         <v>0</v>
       </c>
+      <c r="S571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -34788,6 +36503,9 @@
       <c r="R572" t="n">
         <v>0</v>
       </c>
+      <c r="S572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -34848,6 +36566,9 @@
       <c r="R573" t="n">
         <v>0</v>
       </c>
+      <c r="S573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -34908,6 +36629,9 @@
       <c r="R574" t="n">
         <v>0</v>
       </c>
+      <c r="S574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -34968,6 +36692,9 @@
       <c r="R575" t="n">
         <v>0</v>
       </c>
+      <c r="S575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -35028,6 +36755,9 @@
       <c r="R576" t="n">
         <v>0</v>
       </c>
+      <c r="S576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -35088,6 +36818,9 @@
       <c r="R577" t="n">
         <v>0</v>
       </c>
+      <c r="S577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -35148,6 +36881,9 @@
       <c r="R578" t="n">
         <v>0</v>
       </c>
+      <c r="S578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -35208,6 +36944,9 @@
       <c r="R579" t="n">
         <v>0</v>
       </c>
+      <c r="S579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -35268,6 +37007,9 @@
       <c r="R580" t="n">
         <v>0</v>
       </c>
+      <c r="S580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -35328,6 +37070,9 @@
       <c r="R581" t="n">
         <v>0</v>
       </c>
+      <c r="S581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -35388,6 +37133,9 @@
       <c r="R582" t="n">
         <v>0</v>
       </c>
+      <c r="S582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -35448,6 +37196,9 @@
       <c r="R583" t="n">
         <v>0</v>
       </c>
+      <c r="S583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -35508,6 +37259,9 @@
       <c r="R584" t="n">
         <v>0</v>
       </c>
+      <c r="S584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -35568,6 +37322,9 @@
       <c r="R585" t="n">
         <v>0</v>
       </c>
+      <c r="S585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -35628,6 +37385,9 @@
       <c r="R586" t="n">
         <v>0</v>
       </c>
+      <c r="S586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -35688,6 +37448,9 @@
       <c r="R587" t="n">
         <v>0</v>
       </c>
+      <c r="S587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -35748,6 +37511,9 @@
       <c r="R588" t="n">
         <v>0</v>
       </c>
+      <c r="S588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -35808,6 +37574,9 @@
       <c r="R589" t="n">
         <v>0</v>
       </c>
+      <c r="S589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -35868,6 +37637,9 @@
       <c r="R590" t="n">
         <v>0</v>
       </c>
+      <c r="S590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -35928,6 +37700,9 @@
       <c r="R591" t="n">
         <v>0</v>
       </c>
+      <c r="S591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -35988,6 +37763,9 @@
       <c r="R592" t="n">
         <v>0</v>
       </c>
+      <c r="S592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -36048,6 +37826,9 @@
       <c r="R593" t="n">
         <v>0</v>
       </c>
+      <c r="S593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -36108,6 +37889,9 @@
       <c r="R594" t="n">
         <v>0</v>
       </c>
+      <c r="S594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -36168,6 +37952,9 @@
       <c r="R595" t="n">
         <v>0</v>
       </c>
+      <c r="S595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -36228,6 +38015,9 @@
       <c r="R596" t="n">
         <v>0</v>
       </c>
+      <c r="S596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -36288,6 +38078,9 @@
       <c r="R597" t="n">
         <v>0</v>
       </c>
+      <c r="S597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -36348,6 +38141,9 @@
       <c r="R598" t="n">
         <v>0</v>
       </c>
+      <c r="S598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -36408,6 +38204,9 @@
       <c r="R599" t="n">
         <v>0</v>
       </c>
+      <c r="S599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -36468,6 +38267,9 @@
       <c r="R600" t="n">
         <v>0</v>
       </c>
+      <c r="S600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -36528,6 +38330,9 @@
       <c r="R601" t="n">
         <v>0</v>
       </c>
+      <c r="S601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -36588,6 +38393,9 @@
       <c r="R602" t="n">
         <v>0</v>
       </c>
+      <c r="S602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -36648,6 +38456,9 @@
       <c r="R603" t="n">
         <v>0</v>
       </c>
+      <c r="S603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -36708,6 +38519,9 @@
       <c r="R604" t="n">
         <v>0</v>
       </c>
+      <c r="S604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -36768,6 +38582,9 @@
       <c r="R605" t="n">
         <v>0</v>
       </c>
+      <c r="S605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -36828,6 +38645,9 @@
       <c r="R606" t="n">
         <v>0</v>
       </c>
+      <c r="S606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -36888,6 +38708,9 @@
       <c r="R607" t="n">
         <v>0</v>
       </c>
+      <c r="S607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -36948,6 +38771,9 @@
       <c r="R608" t="n">
         <v>0</v>
       </c>
+      <c r="S608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -37008,6 +38834,9 @@
       <c r="R609" t="n">
         <v>0</v>
       </c>
+      <c r="S609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -37068,6 +38897,9 @@
       <c r="R610" t="n">
         <v>0</v>
       </c>
+      <c r="S610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -37128,6 +38960,9 @@
       <c r="R611" t="n">
         <v>0</v>
       </c>
+      <c r="S611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -37188,6 +39023,9 @@
       <c r="R612" t="n">
         <v>0</v>
       </c>
+      <c r="S612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -37248,6 +39086,9 @@
       <c r="R613" t="n">
         <v>0</v>
       </c>
+      <c r="S613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -37308,6 +39149,9 @@
       <c r="R614" t="n">
         <v>0</v>
       </c>
+      <c r="S614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -37368,6 +39212,9 @@
       <c r="R615" t="n">
         <v>0</v>
       </c>
+      <c r="S615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -37428,6 +39275,9 @@
       <c r="R616" t="n">
         <v>0</v>
       </c>
+      <c r="S616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -37488,6 +39338,9 @@
       <c r="R617" t="n">
         <v>0</v>
       </c>
+      <c r="S617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -37548,6 +39401,9 @@
       <c r="R618" t="n">
         <v>0</v>
       </c>
+      <c r="S618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -37608,6 +39464,9 @@
       <c r="R619" t="n">
         <v>0</v>
       </c>
+      <c r="S619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -37668,6 +39527,9 @@
       <c r="R620" t="n">
         <v>0</v>
       </c>
+      <c r="S620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -37728,6 +39590,9 @@
       <c r="R621" t="n">
         <v>0</v>
       </c>
+      <c r="S621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -37788,6 +39653,9 @@
       <c r="R622" t="n">
         <v>0</v>
       </c>
+      <c r="S622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -37848,6 +39716,9 @@
       <c r="R623" t="n">
         <v>0</v>
       </c>
+      <c r="S623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -37908,6 +39779,9 @@
       <c r="R624" t="n">
         <v>0</v>
       </c>
+      <c r="S624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -37968,6 +39842,9 @@
       <c r="R625" t="n">
         <v>0</v>
       </c>
+      <c r="S625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -38028,6 +39905,9 @@
       <c r="R626" t="n">
         <v>0</v>
       </c>
+      <c r="S626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -38088,6 +39968,9 @@
       <c r="R627" t="n">
         <v>0</v>
       </c>
+      <c r="S627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -38148,6 +40031,9 @@
       <c r="R628" t="n">
         <v>0</v>
       </c>
+      <c r="S628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -38208,6 +40094,9 @@
       <c r="R629" t="n">
         <v>0</v>
       </c>
+      <c r="S629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -38268,6 +40157,9 @@
       <c r="R630" t="n">
         <v>0</v>
       </c>
+      <c r="S630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -38328,6 +40220,9 @@
       <c r="R631" t="n">
         <v>0</v>
       </c>
+      <c r="S631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -38388,6 +40283,9 @@
       <c r="R632" t="n">
         <v>0</v>
       </c>
+      <c r="S632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -38448,6 +40346,9 @@
       <c r="R633" t="n">
         <v>0</v>
       </c>
+      <c r="S633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -38508,6 +40409,9 @@
       <c r="R634" t="n">
         <v>0</v>
       </c>
+      <c r="S634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -38568,6 +40472,9 @@
       <c r="R635" t="n">
         <v>0</v>
       </c>
+      <c r="S635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -38628,6 +40535,9 @@
       <c r="R636" t="n">
         <v>0</v>
       </c>
+      <c r="S636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -38688,6 +40598,9 @@
       <c r="R637" t="n">
         <v>0</v>
       </c>
+      <c r="S637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -38748,6 +40661,9 @@
       <c r="R638" t="n">
         <v>0</v>
       </c>
+      <c r="S638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -38808,6 +40724,9 @@
       <c r="R639" t="n">
         <v>0</v>
       </c>
+      <c r="S639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -38868,6 +40787,9 @@
       <c r="R640" t="n">
         <v>0</v>
       </c>
+      <c r="S640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -38928,6 +40850,9 @@
       <c r="R641" t="n">
         <v>0</v>
       </c>
+      <c r="S641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -38988,6 +40913,9 @@
       <c r="R642" t="n">
         <v>0</v>
       </c>
+      <c r="S642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -39048,6 +40976,9 @@
       <c r="R643" t="n">
         <v>0</v>
       </c>
+      <c r="S643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -39108,6 +41039,9 @@
       <c r="R644" t="n">
         <v>0</v>
       </c>
+      <c r="S644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -39168,6 +41102,9 @@
       <c r="R645" t="n">
         <v>0</v>
       </c>
+      <c r="S645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -39228,6 +41165,9 @@
       <c r="R646" t="n">
         <v>0</v>
       </c>
+      <c r="S646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -39288,6 +41228,9 @@
       <c r="R647" t="n">
         <v>0</v>
       </c>
+      <c r="S647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -39348,6 +41291,9 @@
       <c r="R648" t="n">
         <v>0</v>
       </c>
+      <c r="S648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -39408,6 +41354,9 @@
       <c r="R649" t="n">
         <v>0</v>
       </c>
+      <c r="S649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -39468,6 +41417,9 @@
       <c r="R650" t="n">
         <v>0</v>
       </c>
+      <c r="S650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -39528,6 +41480,9 @@
       <c r="R651" t="n">
         <v>0</v>
       </c>
+      <c r="S651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -39588,6 +41543,9 @@
       <c r="R652" t="n">
         <v>0</v>
       </c>
+      <c r="S652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -39648,6 +41606,9 @@
       <c r="R653" t="n">
         <v>0</v>
       </c>
+      <c r="S653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -39708,6 +41669,9 @@
       <c r="R654" t="n">
         <v>0</v>
       </c>
+      <c r="S654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -39768,6 +41732,9 @@
       <c r="R655" t="n">
         <v>0</v>
       </c>
+      <c r="S655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -39828,6 +41795,9 @@
       <c r="R656" t="n">
         <v>0</v>
       </c>
+      <c r="S656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -39888,6 +41858,9 @@
       <c r="R657" t="n">
         <v>0</v>
       </c>
+      <c r="S657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -39948,6 +41921,9 @@
       <c r="R658" t="n">
         <v>0</v>
       </c>
+      <c r="S658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -40008,6 +41984,9 @@
       <c r="R659" t="n">
         <v>0</v>
       </c>
+      <c r="S659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -40068,6 +42047,9 @@
       <c r="R660" t="n">
         <v>0</v>
       </c>
+      <c r="S660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -40128,6 +42110,9 @@
       <c r="R661" t="n">
         <v>0</v>
       </c>
+      <c r="S661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -40188,6 +42173,9 @@
       <c r="R662" t="n">
         <v>0</v>
       </c>
+      <c r="S662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -40248,6 +42236,9 @@
       <c r="R663" t="n">
         <v>0</v>
       </c>
+      <c r="S663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -40308,6 +42299,9 @@
       <c r="R664" t="n">
         <v>0</v>
       </c>
+      <c r="S664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -40368,6 +42362,9 @@
       <c r="R665" t="n">
         <v>0</v>
       </c>
+      <c r="S665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -40428,6 +42425,9 @@
       <c r="R666" t="n">
         <v>0</v>
       </c>
+      <c r="S666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -40488,6 +42488,9 @@
       <c r="R667" t="n">
         <v>0</v>
       </c>
+      <c r="S667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -40548,6 +42551,9 @@
       <c r="R668" t="n">
         <v>0</v>
       </c>
+      <c r="S668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -40608,6 +42614,9 @@
       <c r="R669" t="n">
         <v>0</v>
       </c>
+      <c r="S669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -40668,6 +42677,9 @@
       <c r="R670" t="n">
         <v>0</v>
       </c>
+      <c r="S670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -40728,6 +42740,9 @@
       <c r="R671" t="n">
         <v>0</v>
       </c>
+      <c r="S671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -40788,6 +42803,9 @@
       <c r="R672" t="n">
         <v>0</v>
       </c>
+      <c r="S672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -40848,6 +42866,9 @@
       <c r="R673" t="n">
         <v>0</v>
       </c>
+      <c r="S673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -40908,6 +42929,9 @@
       <c r="R674" t="n">
         <v>0</v>
       </c>
+      <c r="S674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -40968,6 +42992,9 @@
       <c r="R675" t="n">
         <v>0</v>
       </c>
+      <c r="S675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -41028,6 +43055,9 @@
       <c r="R676" t="n">
         <v>0</v>
       </c>
+      <c r="S676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -41088,6 +43118,9 @@
       <c r="R677" t="n">
         <v>0</v>
       </c>
+      <c r="S677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -41148,6 +43181,9 @@
       <c r="R678" t="n">
         <v>0</v>
       </c>
+      <c r="S678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -41208,6 +43244,9 @@
       <c r="R679" t="n">
         <v>0</v>
       </c>
+      <c r="S679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -41268,6 +43307,9 @@
       <c r="R680" t="n">
         <v>0</v>
       </c>
+      <c r="S680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -41328,6 +43370,9 @@
       <c r="R681" t="n">
         <v>0</v>
       </c>
+      <c r="S681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -41388,6 +43433,9 @@
       <c r="R682" t="n">
         <v>0</v>
       </c>
+      <c r="S682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -41448,6 +43496,9 @@
       <c r="R683" t="n">
         <v>0</v>
       </c>
+      <c r="S683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -41508,6 +43559,9 @@
       <c r="R684" t="n">
         <v>0</v>
       </c>
+      <c r="S684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -41568,6 +43622,9 @@
       <c r="R685" t="n">
         <v>0</v>
       </c>
+      <c r="S685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -41628,6 +43685,9 @@
       <c r="R686" t="n">
         <v>0</v>
       </c>
+      <c r="S686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -41680,12 +43740,15 @@
         <v>19</v>
       </c>
       <c r="P687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q687" t="n">
         <v>0</v>
       </c>
       <c r="R687" t="n">
+        <v>0</v>
+      </c>
+      <c r="S687" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41748,6 +43811,9 @@
       <c r="R688" t="n">
         <v>0</v>
       </c>
+      <c r="S688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -41808,6 +43874,9 @@
       <c r="R689" t="n">
         <v>0</v>
       </c>
+      <c r="S689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -41868,6 +43937,9 @@
       <c r="R690" t="n">
         <v>0</v>
       </c>
+      <c r="S690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -41928,6 +44000,9 @@
       <c r="R691" t="n">
         <v>0</v>
       </c>
+      <c r="S691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -41988,6 +44063,9 @@
       <c r="R692" t="n">
         <v>0</v>
       </c>
+      <c r="S692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -42048,6 +44126,9 @@
       <c r="R693" t="n">
         <v>0</v>
       </c>
+      <c r="S693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -42108,6 +44189,9 @@
       <c r="R694" t="n">
         <v>0</v>
       </c>
+      <c r="S694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -42168,6 +44252,9 @@
       <c r="R695" t="n">
         <v>0</v>
       </c>
+      <c r="S695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -42228,6 +44315,70 @@
       <c r="R696" t="n">
         <v>0</v>
       </c>
+      <c r="S696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>TATVA</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>NIFTY MICROCAP 250</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E697" t="n">
+        <v>1125</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1100.15</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1117.1</v>
+      </c>
+      <c r="H697" t="n">
+        <v>6863</v>
+      </c>
+      <c r="I697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="J697" t="n">
+        <v>5</v>
+      </c>
+      <c r="K697" t="n">
+        <v>18</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N697" t="n">
+        <v>0</v>
+      </c>
+      <c r="O697" t="n">
+        <v>20</v>
+      </c>
+      <c r="P697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
+      <c r="S697" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
